--- a/data/excel_files_reduced/test_excel_4_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_4_reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB2E2B-6F4D-5345-91F2-5B6EBCD0A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4869E4-04E5-6A4C-85C6-F083C37FEF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,23 +692,23 @@
         <v>-1.9850242615</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L4" si="0">IF(A2&gt;1, "Above", "Below")</f>
+        <f t="shared" ref="L2:L3" si="0">IF(A2&gt;1, "Above", "Below")</f>
         <v>Below</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M4" si="1">COUNT(A:A)</f>
+        <f t="shared" ref="M2:M3" si="1">COUNT(A:A)</f>
         <v>2</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="2">COUNTIF(A:A, "&gt;1")</f>
+        <f t="shared" ref="N2:N3" si="2">COUNTIF(A:A, "&gt;1")</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O4" si="3">SUMIF(B:B, "&gt;1")</f>
+        <f t="shared" ref="O2:O3" si="3">SUMIF(B:B, "&gt;1")</f>
         <v>0</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P4" si="4">CONCATENATE(A2, B2)</f>
+        <f t="shared" ref="P2:P3" si="4">CONCATENATE(A2, B2)</f>
         <v>0-3.970048523</v>
       </c>
       <c r="Q2" t="str">
@@ -814,34 +814,34 @@
         <v>1</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R4" si="5">RIGHT(B3, 2)</f>
+        <f t="shared" ref="R3" si="5">RIGHT(B3, 2)</f>
         <v>91</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S4" si="6">CONCATENATE(LEFT(I3,2),RIGHT(I3,2))</f>
+        <f t="shared" ref="S3" si="6">CONCATENATE(LEFT(I3,2),RIGHT(I3,2))</f>
         <v>good</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T4" si="7">COUNTIFS(H:H,"&lt;0",I:I,"good")</f>
+        <f t="shared" ref="T3" si="7">COUNTIFS(H:H,"&lt;0",I:I,"good")</f>
         <v>2</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U4" si="8">TRIM(I3)</f>
+        <f t="shared" ref="U3" si="8">TRIM(I3)</f>
         <v>good</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V4" si="9">ROUND(G3,6)</f>
+        <f t="shared" ref="V3" si="9">ROUND(G3,6)</f>
         <v>0.86753000000000002</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W4" si="10">SUBSTITUTE(S3,"g","fun")</f>
+        <f t="shared" ref="W3" si="10">SUBSTITUTE(S3,"g","fun")</f>
         <v>funood</v>
       </c>
       <c r="Y3" t="s">
         <v>19</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z4" si="11">COUNTIF(I:I,Y3)</f>
+        <f t="shared" ref="Z3" si="11">COUNTIF(I:I,Y3)</f>
         <v>0</v>
       </c>
       <c r="AA3" cm="1">
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C5D13B-6869-4528-84A8-8C592BB96282}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,19 +937,19 @@
         <v>#N/A</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">IF(B3&gt;0,B3+C3,0)</f>
+        <f t="shared" ref="D3" si="0">IF(B3&gt;0,B3+C3,0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="1">IF(B3&gt;0,AVERAGE(B3:C3),0)</f>
+        <f t="shared" ref="E3" si="1">IF(B3&gt;0,AVERAGE(B3:C3),0)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="2">HLOOKUP(A3,$N$4:$AC$5,2,1)</f>
+        <f t="shared" ref="F3" si="2">HLOOKUP(A3,$N$4:$AC$5,2,1)</f>
         <v>8</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G17" si="3">COUNTIF($B:$B,"&gt;1")</f>
+        <f t="shared" ref="G3" si="3">COUNTIF($B:$B,"&gt;1")</f>
         <v>0</v>
       </c>
       <c r="N3" t="s">

--- a/data/excel_files_reduced/test_excel_4_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_4_reduced.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4869E4-04E5-6A4C-85C6-F083C37FEF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94101A-7FD1-6D43-8BAA-B7252864AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>A_id</t>
   </si>
@@ -118,33 +117,9 @@
     <t>bad</t>
   </si>
   <si>
-    <t>Filtered_id</t>
-  </si>
-  <si>
-    <t>Vlookup Size</t>
-  </si>
-  <si>
-    <t>Index Match Weight</t>
-  </si>
-  <si>
-    <t>Conditional Sum</t>
-  </si>
-  <si>
-    <t>Conditional average</t>
-  </si>
-  <si>
-    <t>Hlookup</t>
-  </si>
-  <si>
-    <t>Vlookup Size Countif</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Count not empty</t>
-  </si>
-  <si>
     <t>Concatenate string</t>
   </si>
   <si>
@@ -161,45 +136,6 @@
   </si>
   <si>
     <t>Fun Substitute</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>num_2</t>
-  </si>
-  <si>
-    <t>num_4</t>
-  </si>
-  <si>
-    <t>num_6</t>
-  </si>
-  <si>
-    <t>num_8</t>
-  </si>
-  <si>
-    <t>num_10</t>
-  </si>
-  <si>
-    <t>num_12</t>
-  </si>
-  <si>
-    <t>num_14</t>
-  </si>
-  <si>
-    <t>num_16</t>
-  </si>
-  <si>
-    <t>num_18</t>
-  </si>
-  <si>
-    <t>num_20</t>
-  </si>
-  <si>
-    <t>num_22</t>
-  </si>
-  <si>
-    <t>num_24</t>
   </si>
 </sst>
 </file>
@@ -563,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +510,7 @@
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,34 +566,31 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y1" t="s">
         <v>8</v>
       </c>
       <c r="Z1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -750,12 +683,8 @@
         <f t="array" ref="AA2">INDEX(Z:Z,2,0)</f>
         <v>2</v>
       </c>
-      <c r="AC2">
-        <f>MAX($Z$2:$Z$3)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -852,232 +781,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C5D13B-6869-4528-84A8-8C592BB96282}">
-  <dimension ref="A1:Y5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <f>VLOOKUP(sheet_2!A2,sheet_1!A:B,2,1)</f>
-        <v>-1.195217191</v>
-      </c>
-      <c r="C2" t="e">
-        <f>INDEX(sheet_1!C:C,MATCH(A2,sheet_1!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D2">
-        <f>IF(B2&gt;0,B2+C2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>IF(B2&gt;0,AVERAGE(B2:C2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>HLOOKUP(A2,$N$4:$AC$5,2,1)</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <f>COUNTIF($B:$B,"&gt;1")</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>COUNTA(G:G)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>A2+2</f>
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <f>VLOOKUP(sheet_2!A3,sheet_1!A:B,2,1)</f>
-        <v>-1.195217191</v>
-      </c>
-      <c r="C3" t="e">
-        <f>INDEX(sheet_1!C:C,MATCH(A3,sheet_1!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3" si="0">IF(B3&gt;0,B3+C3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3" si="1">IF(B3&gt;0,AVERAGE(B3:C3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3" si="2">HLOOKUP(A3,$N$4:$AC$5,2,1)</f>
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3" si="3">COUNTIF($B:$B,"&gt;1")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>12</v>
-      </c>
-      <c r="T4">
-        <v>14</v>
-      </c>
-      <c r="U4">
-        <v>16</v>
-      </c>
-      <c r="V4">
-        <v>18</v>
-      </c>
-      <c r="W4">
-        <v>20</v>
-      </c>
-      <c r="X4">
-        <v>22</v>
-      </c>
-      <c r="Y4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="N5">
-        <f>N4*2</f>
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:Y5" si="4">O4*2</f>
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/excel_files_reduced/test_excel_4_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_4_reduced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94101A-7FD1-6D43-8BAA-B7252864AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD9833-51F4-BF47-A8F0-957A641D93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>1-1.195217191</v>
       </c>
       <c r="Q3" t="str">
-        <f>LEFT(A3, 3)</f>
+        <f>LEFT(A3, 2)</f>
         <v>1</v>
       </c>
       <c r="R3" t="str">

--- a/data/excel_files_reduced/test_excel_4_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_4_reduced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD9833-51F4-BF47-A8F0-957A641D93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECE45D-86C3-DE49-8BA2-166F6389132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>A_id</t>
   </si>
@@ -123,9 +101,6 @@
     <t>Concatenate string</t>
   </si>
   <si>
-    <t>Conditional count</t>
-  </si>
-  <si>
     <t>Index value</t>
   </si>
   <si>
@@ -135,7 +110,7 @@
     <t>Rounded Ripeness</t>
   </si>
   <si>
-    <t>Fun Substitute</t>
+    <t>Replace</t>
   </si>
 </sst>
 </file>
@@ -499,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,7 +485,7 @@
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" t="s">
         <v>24</v>
@@ -577,20 +552,17 @@
       <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
-        <v>26</v>
+      <c r="X1" t="s">
+        <v>8</v>
       </c>
       <c r="Y1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -656,35 +628,31 @@
         <f>CONCATENATE(LEFT(I2,2),RIGHT(I2,2))</f>
         <v>good</v>
       </c>
-      <c r="T2">
-        <f>COUNTIFS(H:H,"&lt;0",I:I,"good")</f>
-        <v>2</v>
-      </c>
-      <c r="U2" t="str">
+      <c r="T2" t="str">
         <f>TRIM(I2)</f>
         <v>good</v>
       </c>
-      <c r="V2">
+      <c r="U2">
         <f>ROUND(G2,6)</f>
         <v>0.32984000000000002</v>
       </c>
-      <c r="W2" t="str">
-        <f>SUBSTITUTE(S2,"g","fun")</f>
-        <v>funood</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="V2" t="str">
+        <f>REPLACE(S2,4,1,"f")</f>
+        <v>goof</v>
+      </c>
+      <c r="X2" t="s">
         <v>18</v>
       </c>
+      <c r="Y2">
+        <f>COUNTIF(I:I,X2)</f>
+        <v>2</v>
+      </c>
       <c r="Z2">
-        <f>COUNTIF(I:I,Y2)</f>
+        <f>INDEX(Y2:Y100,1,1)</f>
         <v>2</v>
       </c>
-      <c r="AA2" cm="1">
-        <f t="array" ref="AA2">INDEX(Z:Z,2,0)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -750,31 +718,27 @@
         <f t="shared" ref="S3" si="6">CONCATENATE(LEFT(I3,2),RIGHT(I3,2))</f>
         <v>good</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3" si="7">COUNTIFS(H:H,"&lt;0",I:I,"good")</f>
-        <v>2</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3" si="8">TRIM(I3)</f>
+      <c r="T3" t="str">
+        <f>TRIM(I3)</f>
         <v>good</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3" si="9">ROUND(G3,6)</f>
+      <c r="U3">
+        <f>ROUND(G3,6)</f>
         <v>0.86753000000000002</v>
       </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3" si="10">SUBSTITUTE(S3,"g","fun")</f>
-        <v>funood</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="V3" t="str">
+        <f t="shared" ref="V3" si="7">REPLACE(S3,4,1,"f")</f>
+        <v>goof</v>
+      </c>
+      <c r="X3" t="s">
         <v>19</v>
       </c>
+      <c r="Y3">
+        <f>COUNTIF(I:I,X3)</f>
+        <v>0</v>
+      </c>
       <c r="Z3">
-        <f t="shared" ref="Z3" si="11">COUNTIF(I:I,Y3)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" cm="1">
-        <f t="array" ref="AA3">INDEX(Z:Z,2,0)</f>
+        <f>INDEX(Y2:Y100,1,1)</f>
         <v>2</v>
       </c>
     </row>
